--- a/DOC/結合テスト/EMSM_結合テスト-雇用保険機能.xlsx
+++ b/DOC/結合テスト/EMSM_結合テスト-雇用保険機能.xlsx
@@ -151,8 +151,8 @@
     <t>①雇用保険リスト画面表示②年度に現在の年表示</t>
   </si>
   <si>
-    <t xml:space="preserve">①雇用保険リスト画面表示
-②年度に現在の年表示
+    <t xml:space="preserve">①雇用保険リスト画面表示
+②年度に現在の年表示
 </t>
   </si>
   <si>
@@ -162,7 +162,7 @@
     <t>テストデータNo.3</t>
   </si>
   <si>
-    <t>①対象年に入力
+    <t>①対象年に入力
 ②「検索」ボダン押す</t>
   </si>
   <si>
@@ -3875,7 +3875,7 @@
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" ht="16" customFormat="1" s="4">
+    <row r="14" ht="15" customFormat="1" s="4">
       <c r="A14" s="5"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -3931,7 +3931,7 @@
       <c r="R16" s="52"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" ht="16" customFormat="1" s="4">
+    <row r="17" ht="15" customFormat="1" s="4">
       <c r="A17" s="5"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -3949,7 +3949,7 @@
       <c r="R17" s="8"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" ht="16" customFormat="1" s="4">
+    <row r="18" ht="15" customFormat="1" s="4">
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -3969,7 +3969,7 @@
       <c r="R18" s="37"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" ht="16" customFormat="1" s="4">
+    <row r="19" ht="15" customFormat="1" s="4">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -3989,7 +3989,7 @@
       <c r="R19" s="40"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" ht="16" customFormat="1" s="4">
+    <row r="20" ht="15" customFormat="1" s="4">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -4007,7 +4007,7 @@
       <c r="R20" s="43"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" ht="16" customFormat="1" s="4">
+    <row r="21" ht="15" customFormat="1" s="4">
       <c r="A21" s="5"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -4045,7 +4045,7 @@
       <c r="R22" s="45"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" ht="16" customFormat="1" s="4">
+    <row r="23" ht="15" customFormat="1" s="4">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -4065,7 +4065,7 @@
       <c r="R23" s="48"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" ht="16" customFormat="1" s="4">
+    <row r="24" ht="15" customFormat="1" s="4">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -4083,7 +4083,7 @@
       <c r="R24" s="51"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" ht="16" customFormat="1" s="4">
+    <row r="25" ht="15" customFormat="1" s="4">
       <c r="A25" s="5"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -4101,7 +4101,7 @@
       <c r="R25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" ht="13" customFormat="1" s="4">
+    <row r="26" ht="12" customFormat="1" s="4">
       <c r="A26" s="5"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -4313,7 +4313,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" ht="19">
+    <row r="3">
       <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
@@ -4327,7 +4327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="19">
+    <row r="4">
       <c r="B4" s="19">
         <v>1</v>
       </c>
@@ -4427,7 +4427,7 @@
       <selection activeCell="BL20" sqref="BL20" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.125" customWidth="1" style="344"/>
     <col min="2" max="2" width="2.125" customWidth="1" style="344"/>
@@ -4498,7 +4498,7 @@
     <col min="67" max="16384" width="9.625" style="344"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" ht="13" customFormat="1" s="345">
+    <row r="1" customHeight="1" ht="12" customFormat="1" s="345">
       <c r="A1" s="347"/>
       <c r="B1" s="348"/>
       <c r="C1" s="348"/>
@@ -4565,7 +4565,7 @@
       <c r="BL1" s="348"/>
       <c r="BM1" s="350"/>
     </row>
-    <row r="2" customHeight="1" ht="13" customFormat="1" s="345">
+    <row r="2" customHeight="1" ht="12" customFormat="1" s="345">
       <c r="A2" s="351" t="s">
         <v>27</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="BL2" s="345"/>
       <c r="BM2" s="350"/>
     </row>
-    <row r="3" customHeight="1" ht="13" customFormat="1" s="345">
+    <row r="3" customHeight="1" ht="12" customFormat="1" s="345">
       <c r="A3" s="351"/>
       <c r="B3" s="352"/>
       <c r="C3" s="352"/>
@@ -4669,7 +4669,7 @@
       <c r="BL3" s="345"/>
       <c r="BM3" s="353"/>
     </row>
-    <row r="4" customHeight="1" ht="13" customFormat="1" s="345">
+    <row r="4" customHeight="1" ht="12" customFormat="1" s="345">
       <c r="A4" s="354" t="s">
         <v>12</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="BL4" s="363"/>
       <c r="BM4" s="369"/>
     </row>
-    <row r="5" customHeight="1" ht="13" customFormat="1" s="345">
+    <row r="5" customHeight="1" ht="12" customFormat="1" s="345">
       <c r="A5" s="370"/>
       <c r="B5" s="371"/>
       <c r="C5" s="371"/>
@@ -4910,7 +4910,7 @@
       <c r="BM7" s="381"/>
       <c r="BN7" s="346"/>
     </row>
-    <row r="8" ht="23" customFormat="1" s="344">
+    <row r="8" ht="22" customFormat="1" s="344">
       <c r="A8" s="382">
         <v>1</v>
       </c>
@@ -4993,7 +4993,7 @@
       <c r="BL8" s="255"/>
       <c r="BM8" s="387"/>
     </row>
-    <row r="9" customHeight="1" ht="43" customFormat="1" s="344">
+    <row r="9" customHeight="1" ht="42" customFormat="1" s="344">
       <c r="A9" s="411">
         <v>2</v>
       </c>
@@ -5074,7 +5074,7 @@
       <c r="BL9" s="436"/>
       <c r="BM9" s="437"/>
     </row>
-    <row r="10" ht="23" customFormat="1" s="344">
+    <row r="10" ht="22" customFormat="1" s="344">
       <c r="A10" s="443">
         <v>3</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="BL10" s="468"/>
       <c r="BM10" s="475"/>
     </row>
-    <row r="11" ht="23" customFormat="1" s="344">
+    <row r="11" ht="22" customFormat="1" s="344">
       <c r="A11" s="479" t="s">
         <v>47</v>
       </c>
@@ -5238,7 +5238,7 @@
       <c r="BL11" s="479"/>
       <c r="BM11" s="480"/>
     </row>
-    <row r="12" ht="23" customFormat="1" s="344">
+    <row r="12" ht="22" customFormat="1" s="344">
       <c r="A12" s="598">
         <v>5</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="BL12" s="598"/>
       <c r="BM12" s="599"/>
     </row>
-    <row r="13" ht="23" customFormat="1" s="344">
+    <row r="13" ht="22" customFormat="1" s="344">
       <c r="A13" s="443"/>
       <c r="B13" s="447"/>
       <c r="C13" s="447"/>
@@ -6378,7 +6378,7 @@
       <selection activeCell="L8" sqref="L8" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1" style="507"/>
     <col min="2" max="2" width="9.625" style="507"/>

--- a/DOC/結合テスト/EMSM_結合テスト-雇用保険機能.xlsx
+++ b/DOC/結合テスト/EMSM_結合テスト-雇用保険機能.xlsx
@@ -393,6 +393,37 @@
   <si>
     <t>E004</t>
   </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>更新ボダン押す</t>
+  </si>
+  <si>
+    <t>雇用保険画面が遷移される</t>
+  </si>
+  <si>
+    <t>①対象年度（2022）を入力
+②「検索」ボダン押す</t>
+  </si>
+  <si>
+    <t>雇用保険画面へ遷移される</t>
+  </si>
+  <si>
+    <t>テストデータNo.2に書いてるデータが表示される</t>
+  </si>
+  <si>
+    <t>E005</t>
+  </si>
+  <si>
+    <t>E006</t>
+  </si>
+  <si>
+    <t>E007</t>
+  </si>
+  <si>
+    <t>E010</t>
+  </si>
 </sst>
 </file>
 
@@ -401,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00&quot;日&quot;"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +650,16 @@
       <u val="single"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -674,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="86">
+  <borders count="110">
     <border>
       <left/>
       <right/>
@@ -1378,6 +1419,174 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1393,7 +1602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="636">
+  <cellXfs count="666">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3479,6 +3688,126 @@
     </xf>
     <xf numFmtId="14" applyNumberFormat="1" fontId="31" applyFont="1" fillId="0" applyFill="1" borderId="85" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment wrapText="1" vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="35" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="86" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="87" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="88" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="89" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="90" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="91" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="92" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="93" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="94" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="95" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="96" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="97" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="98" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="99" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="100" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="101" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="102" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="103" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="104" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="105" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="106" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="108" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="36" applyFont="1" fillId="0" applyFill="1" borderId="109" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
       <protection/>
     </xf>
   </cellXfs>
@@ -4101,7 +4430,7 @@
       <c r="R25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" ht="12" customFormat="1" s="4">
+    <row r="26" customFormat="1" s="4">
       <c r="A26" s="5"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -4424,7 +4753,7 @@
   <dimension ref="A1:BM20"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <selection activeCell="BL20" sqref="BL20" activeCellId="0"/>
+      <selection activeCell="BS20" sqref="BS20" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4910,7 +5239,7 @@
       <c r="BM7" s="381"/>
       <c r="BN7" s="346"/>
     </row>
-    <row r="8" ht="22" customFormat="1" s="344">
+    <row r="8" ht="21" customFormat="1" s="344">
       <c r="A8" s="382">
         <v>1</v>
       </c>
@@ -5074,7 +5403,7 @@
       <c r="BL9" s="436"/>
       <c r="BM9" s="437"/>
     </row>
-    <row r="10" ht="22" customFormat="1" s="344">
+    <row r="10" ht="21" customFormat="1" s="344">
       <c r="A10" s="443">
         <v>3</v>
       </c>
@@ -5181,7 +5510,7 @@
       <c r="Q11" s="479"/>
       <c r="R11" s="480"/>
       <c r="S11" s="483" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="T11" s="479"/>
       <c r="U11" s="479"/>
@@ -5201,7 +5530,7 @@
       <c r="AI11" s="479"/>
       <c r="AJ11" s="480"/>
       <c r="AK11" s="479" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="AL11" s="479"/>
       <c r="AM11" s="479"/>
@@ -5238,7 +5567,7 @@
       <c r="BL11" s="479"/>
       <c r="BM11" s="480"/>
     </row>
-    <row r="12" ht="22" customFormat="1" s="344">
+    <row r="12" customFormat="1" s="344">
       <c r="A12" s="598">
         <v>5</v>
       </c>
@@ -5282,7 +5611,7 @@
       <c r="AI12" s="598"/>
       <c r="AJ12" s="599"/>
       <c r="AK12" s="600" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="AL12" s="600"/>
       <c r="AM12" s="600"/>
@@ -5319,18 +5648,22 @@
       <c r="BL12" s="598"/>
       <c r="BM12" s="599"/>
     </row>
-    <row r="13" ht="22" customFormat="1" s="344">
-      <c r="A13" s="443"/>
-      <c r="B13" s="447"/>
-      <c r="C13" s="447"/>
-      <c r="D13" s="443"/>
-      <c r="E13" s="447"/>
-      <c r="F13" s="447"/>
-      <c r="G13" s="447"/>
-      <c r="H13" s="447"/>
-      <c r="I13" s="447"/>
-      <c r="J13" s="447"/>
-      <c r="K13" s="447"/>
+    <row r="13" customFormat="1" s="344">
+      <c r="A13" s="637">
+        <v>6</v>
+      </c>
+      <c r="B13" s="443"/>
+      <c r="C13" s="443"/>
+      <c r="D13" s="637" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="443"/>
+      <c r="F13" s="443"/>
+      <c r="G13" s="443"/>
+      <c r="H13" s="443"/>
+      <c r="I13" s="443"/>
+      <c r="J13" s="443"/>
+      <c r="K13" s="443"/>
       <c r="L13" s="443"/>
       <c r="M13" s="447"/>
       <c r="N13" s="447"/>
@@ -5338,53 +5671,63 @@
       <c r="P13" s="447"/>
       <c r="Q13" s="447"/>
       <c r="R13" s="447"/>
-      <c r="S13" s="443"/>
-      <c r="T13" s="447"/>
-      <c r="U13" s="447"/>
-      <c r="V13" s="447"/>
-      <c r="W13" s="447"/>
-      <c r="X13" s="447"/>
-      <c r="Y13" s="447"/>
-      <c r="Z13" s="447"/>
-      <c r="AA13" s="447"/>
-      <c r="AB13" s="447"/>
-      <c r="AC13" s="447"/>
-      <c r="AD13" s="447"/>
-      <c r="AE13" s="447"/>
-      <c r="AF13" s="447"/>
-      <c r="AG13" s="447"/>
-      <c r="AH13" s="447"/>
-      <c r="AI13" s="447"/>
-      <c r="AJ13" s="447"/>
-      <c r="AK13" s="625"/>
-      <c r="AL13" s="626"/>
-      <c r="AM13" s="626"/>
-      <c r="AN13" s="626"/>
-      <c r="AO13" s="626"/>
-      <c r="AP13" s="626"/>
-      <c r="AQ13" s="626"/>
-      <c r="AR13" s="626"/>
-      <c r="AS13" s="626"/>
-      <c r="AT13" s="626"/>
-      <c r="AU13" s="626"/>
-      <c r="AV13" s="626"/>
-      <c r="AW13" s="626"/>
-      <c r="AX13" s="630"/>
-      <c r="AY13" s="632"/>
-      <c r="AZ13" s="447"/>
-      <c r="BA13" s="447"/>
-      <c r="BB13" s="447"/>
-      <c r="BC13" s="447"/>
-      <c r="BD13" s="447"/>
-      <c r="BE13" s="443"/>
-      <c r="BF13" s="447"/>
-      <c r="BG13" s="447"/>
-      <c r="BH13" s="447"/>
-      <c r="BI13" s="447"/>
-      <c r="BJ13" s="468"/>
-      <c r="BK13" s="447"/>
-      <c r="BL13" s="447"/>
-      <c r="BM13" s="616"/>
+      <c r="S13" s="637" t="s">
+        <v>123</v>
+      </c>
+      <c r="T13" s="443"/>
+      <c r="U13" s="443"/>
+      <c r="V13" s="443"/>
+      <c r="W13" s="443"/>
+      <c r="X13" s="443"/>
+      <c r="Y13" s="443"/>
+      <c r="Z13" s="443"/>
+      <c r="AA13" s="443"/>
+      <c r="AB13" s="443"/>
+      <c r="AC13" s="443"/>
+      <c r="AD13" s="443"/>
+      <c r="AE13" s="443"/>
+      <c r="AF13" s="443"/>
+      <c r="AG13" s="443"/>
+      <c r="AH13" s="443"/>
+      <c r="AI13" s="443"/>
+      <c r="AJ13" s="443"/>
+      <c r="AK13" s="639" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL13" s="451"/>
+      <c r="AM13" s="451"/>
+      <c r="AN13" s="451"/>
+      <c r="AO13" s="451"/>
+      <c r="AP13" s="451"/>
+      <c r="AQ13" s="451"/>
+      <c r="AR13" s="451"/>
+      <c r="AS13" s="451"/>
+      <c r="AT13" s="451"/>
+      <c r="AU13" s="451"/>
+      <c r="AV13" s="451"/>
+      <c r="AW13" s="451"/>
+      <c r="AX13" s="451"/>
+      <c r="AY13" s="636" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ13" s="456"/>
+      <c r="BA13" s="456"/>
+      <c r="BB13" s="456"/>
+      <c r="BC13" s="456"/>
+      <c r="BD13" s="456"/>
+      <c r="BE13" s="637" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF13" s="443"/>
+      <c r="BG13" s="443"/>
+      <c r="BH13" s="443"/>
+      <c r="BI13" s="443"/>
+      <c r="BJ13" s="640">
+        <v>45096</v>
+      </c>
+      <c r="BK13" s="468"/>
+      <c r="BL13" s="468"/>
+      <c r="BM13" s="475"/>
     </row>
     <row r="14" customFormat="1" s="344">
       <c r="A14" s="611"/>
@@ -6297,7 +6640,7 @@
       <c r="BP26" s="591"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="72">
     <mergeCell ref="A2:Z3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:N4"/>
@@ -6363,6 +6706,13 @@
     <mergeCell ref="AY12:BD12"/>
     <mergeCell ref="BE12:BI12"/>
     <mergeCell ref="BJ12:BM12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="S13:AJ13"/>
+    <mergeCell ref="AK13:AX13"/>
+    <mergeCell ref="AY13:BD13"/>
+    <mergeCell ref="BE13:BI13"/>
+    <mergeCell ref="BJ13:BM13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6375,7 +6725,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="L8" sqref="L8" activeCellId="0"/>
+      <selection activeCell="F21" sqref="F21:F22" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6586,6 +6936,11 @@
       <c r="R6" s="519"/>
       <c r="S6" s="531"/>
     </row>
+    <row r="8">
+      <c r="A8" s="507" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="9">
       <c r="B9" s="583" t="s">
         <v>102</v>
@@ -6695,28 +7050,28 @@
       </c>
     </row>
     <row r="12" customFormat="1" s="507">
-      <c r="B12" s="555" t="s">
+      <c r="B12" s="642" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="555">
+      <c r="C12" s="642">
         <v>2022</v>
       </c>
-      <c r="D12" s="555">
+      <c r="D12" s="642">
         <v>2.2</v>
       </c>
-      <c r="E12" s="555">
+      <c r="E12" s="642">
         <v>2.2</v>
       </c>
-      <c r="F12" s="555">
+      <c r="F12" s="642">
         <v>4.4</v>
       </c>
-      <c r="G12" s="555">
+      <c r="G12" s="642">
         <v>2.2</v>
       </c>
-      <c r="H12" s="555">
+      <c r="H12" s="642">
         <v>6.6</v>
       </c>
-      <c r="I12" s="555">
+      <c r="I12" s="642">
         <v>2.2</v>
       </c>
       <c r="J12" s="555">
@@ -6727,6 +7082,181 @@
       </c>
       <c r="L12" s="560">
         <v>20230518</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="652" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="653">
+        <v>2022</v>
+      </c>
+      <c r="D13" s="654">
+        <v>4.4</v>
+      </c>
+      <c r="E13" s="654">
+        <v>4.4</v>
+      </c>
+      <c r="F13" s="654">
+        <v>4.4</v>
+      </c>
+      <c r="G13" s="654">
+        <v>4.4</v>
+      </c>
+      <c r="H13" s="654">
+        <v>4.4</v>
+      </c>
+      <c r="I13" s="652">
+        <v>4.4</v>
+      </c>
+      <c r="J13" s="655">
+        <v>0</v>
+      </c>
+      <c r="K13" s="553">
+        <v>20230516</v>
+      </c>
+      <c r="L13" s="446">
+        <v>20230519</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="663" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="643">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="650">
+        <v>5.5</v>
+      </c>
+      <c r="E14" s="650">
+        <v>5.5</v>
+      </c>
+      <c r="F14" s="650">
+        <v>5.5</v>
+      </c>
+      <c r="G14" s="650">
+        <v>5.5</v>
+      </c>
+      <c r="H14" s="650">
+        <v>5.5</v>
+      </c>
+      <c r="I14" s="663">
+        <v>5.5</v>
+      </c>
+      <c r="J14" s="651">
+        <v>0</v>
+      </c>
+      <c r="K14" s="651">
+        <v>20230516</v>
+      </c>
+      <c r="L14" s="446">
+        <v>20230515</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="657" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="648">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="658">
+        <v>3.3</v>
+      </c>
+      <c r="E15" s="658">
+        <v>6.6</v>
+      </c>
+      <c r="F15" s="658">
+        <v>6.6</v>
+      </c>
+      <c r="G15" s="658">
+        <v>3.3</v>
+      </c>
+      <c r="H15" s="658">
+        <v>9.9</v>
+      </c>
+      <c r="I15" s="657">
+        <v>3.3</v>
+      </c>
+      <c r="J15" s="665">
+        <v>0</v>
+      </c>
+      <c r="K15" s="664">
+        <v>20230516</v>
+      </c>
+      <c r="L15" s="446">
+        <v>20230518</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="657" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="648">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="658">
+        <v>3.3</v>
+      </c>
+      <c r="E16" s="658">
+        <v>5.5</v>
+      </c>
+      <c r="F16" s="658">
+        <v>1.1</v>
+      </c>
+      <c r="G16" s="658">
+        <v>3.3</v>
+      </c>
+      <c r="H16" s="658">
+        <v>8.8</v>
+      </c>
+      <c r="I16" s="657">
+        <v>3.3</v>
+      </c>
+      <c r="J16" s="656">
+        <v>0</v>
+      </c>
+      <c r="K16" s="553">
+        <v>20230518</v>
+      </c>
+      <c r="L16" s="651">
+        <v>20230518</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="657" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="648">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="658">
+        <v>3.3</v>
+      </c>
+      <c r="E17" s="658">
+        <v>1.1</v>
+      </c>
+      <c r="F17" s="658">
+        <v>1.1</v>
+      </c>
+      <c r="G17" s="658">
+        <v>2.2</v>
+      </c>
+      <c r="H17" s="658">
+        <v>1.1</v>
+      </c>
+      <c r="I17" s="657">
+        <v>3.3</v>
+      </c>
+      <c r="J17" s="656">
+        <v>0</v>
+      </c>
+      <c r="K17" s="657">
+        <v>20230515</v>
+      </c>
+      <c r="L17" s="446">
+        <v>20230515</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/結合テスト/EMSM_結合テスト-雇用保険機能.xlsx
+++ b/DOC/結合テスト/EMSM_結合テスト-雇用保険機能.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4F932C-3727-4A80-9E9F-4B2AE8EE96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="810" windowWidth="25230" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="2"/>
+    <workbookView xWindow="3060" yWindow="810" windowWidth="25230" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -4620,7 +4620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702505DA-3645-4D14-86FE-2B9896603D6D}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0" tabSelected="1">
       <selection activeCell="O6" sqref="O6" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -4752,8 +4752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM20"/>
   <sheetViews>
-    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <selection activeCell="BS20" sqref="BS20" activeCellId="0"/>
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="BQ11" sqref="BQ11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5484,7 +5484,7 @@
       <c r="BL10" s="468"/>
       <c r="BM10" s="475"/>
     </row>
-    <row r="11" ht="22" customFormat="1" s="344">
+    <row r="11" ht="21" customFormat="1" s="344">
       <c r="A11" s="479" t="s">
         <v>47</v>
       </c>
@@ -6725,7 +6725,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="F21" sqref="F21:F22" activeCellId="0"/>
+      <selection activeCell="L28" sqref="L28" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="18.75" outlineLevelRow="0" outlineLevelCol="0"/>
